--- a/0100_Research/0120_Prototypes/0122_LiDarLitev4/1_NoiseQuantification/211022_ErrorMesTest.xlsx
+++ b/0100_Research/0120_Prototypes/0122_LiDarLitev4/1_NoiseQuantification/211022_ErrorMesTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e675ddd269f32ab/Documents/3e/PGA/git/LoRaSnow/0100_Research/0120_Prototypes/0122_LiDarLitev4/1_NoiseQuantification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="8_{363007B7-EF68-4699-8DEB-3219973E3261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E76CDE58-9036-4DAA-B691-5EE85DAAFD29}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{363007B7-EF68-4699-8DEB-3219973E3261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C318DBC2-4F5B-404B-B64C-3527B140AA10}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{AC3C01DE-17D2-4DEE-8A88-187E4465A51B}"/>
   </bookViews>
@@ -19,16 +19,18 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'2021-10-22_150600_Noise'!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'2021-10-22_150600_Noise'!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'2021-10-29_153731_Noise'!$E$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'2021-10-29_153731_Noise'!$E$2:$E$101</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'2021-10-29_153731_Noise'!$F$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'2021-10-29_153731_Noise'!$F$2:$F$101</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'2021-10-29_153731_Noise'!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'2021-10-29_153731_Noise'!$C$2:$C$101</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'2021-10-29_153731_Noise'!$A$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'2021-10-29_153731_Noise'!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'2021-10-29_153731_Noise'!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'2021-10-29_153731_Noise'!$B$2:$B$101</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'2021-10-29_153731_Noise'!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'2021-10-29_153731_Noise'!$C$2:$C$101</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'2021-10-29_153731_Noise'!$D$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'2021-10-29_153731_Noise'!$D$2:$D$101</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'2021-10-29_153731_Noise'!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'2021-10-29_153731_Noise'!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'2021-10-29_153731_Noise'!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'2021-10-29_153731_Noise'!$E$2:$E$101</definedName>
     <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'2021-10-22_150600_Noise'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -298,7 +300,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021-10-29_153731_Noise'!$G$9</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$H$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -317,7 +319,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2021-10-29_153731_Noise'!$H$8:$L$8</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$I$8:$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -340,7 +342,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2021-10-29_153731_Noise'!$H$9:$L$9</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$I$9:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -373,7 +375,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021-10-29_153731_Noise'!$G$10</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$H$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -411,7 +413,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'2021-10-29_153731_Noise'!$H$8:$L$8</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$I$8:$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -434,7 +436,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2021-10-29_153731_Noise'!$H$10:$L$10</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$I$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -467,7 +469,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021-10-29_153731_Noise'!$G$11</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$H$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -495,7 +497,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2021-10-29_153731_Noise'!$H$8:$L$8</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$I$8:$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -518,7 +520,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2021-10-29_153731_Noise'!$H$11:$L$11</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$I$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -551,7 +553,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021-10-29_153731_Noise'!$G$12</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$H$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -579,7 +581,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2021-10-29_153731_Noise'!$H$8:$L$8</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$I$8:$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -602,7 +604,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2021-10-29_153731_Noise'!$H$12:$L$12</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$I$12:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -635,7 +637,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021-10-29_153731_Noise'!$G$13</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$H$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -673,7 +675,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'2021-10-29_153731_Noise'!$H$8:$L$8</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$I$8:$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -696,7 +698,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2021-10-29_153731_Noise'!$H$13:$L$13</c:f>
+              <c:f>'2021-10-29_153731_Noise'!$I$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -843,6 +845,593 @@
         <c:crossAx val="263110335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12925503062117241"/>
+                  <c:y val="0.36695683872849233"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2021-10-29_153731_Noise'!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA98-440E-B0F6-1E869CDD3782}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2005931071"/>
+        <c:axId val="2005931903"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2005931071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2005931903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2005931903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2005931071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1276,7 +1865,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1314,7 +1903,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000001-F30B-4D06-A00E-B086A97C0166}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Noise 2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1401,7 +1990,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1439,7 +2028,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000001-F30B-4D06-A00E-B086A97C0166}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Noise 3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1926,6 +2515,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
@@ -5460,6 +6089,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5528,8 +6673,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5117305" y="240506"/>
-              <a:ext cx="5807870" cy="3740944"/>
+              <a:off x="5093493" y="240506"/>
+              <a:ext cx="5774532" cy="3740944"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5566,13 +6711,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>473870</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>121444</xdr:rowOff>
@@ -5644,13 +6789,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>473870</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>121444</xdr:rowOff>
@@ -5722,13 +6867,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>473870</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>121444</xdr:rowOff>
@@ -5800,13 +6945,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>473870</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>121444</xdr:rowOff>
@@ -5878,13 +7023,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>473870</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>121444</xdr:rowOff>
@@ -5956,13 +7101,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>180973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5985,6 +7130,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16667</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>16667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>16667</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>45242</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972706ED-5EC3-462B-ADC1-69A012E46A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7179,224 +8360,220 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA777E8-44C9-4C4E-B381-08EC9D0E766F}">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="2.796875" customWidth="1"/>
+    <col min="7" max="7" width="2.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>159</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>157</v>
       </c>
-      <c r="C2">
-        <v>159</v>
-      </c>
       <c r="D2">
         <v>159</v>
       </c>
       <c r="E2">
+        <v>159</v>
+      </c>
+      <c r="F2">
         <v>147</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>MIN(A:A)</f>
         <v>158</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:L2" si="0">MIN(B:B)</f>
+      <c r="J2">
+        <f t="shared" ref="J2:M2" si="0">MIN(C:C)</f>
         <v>143</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>162</v>
       </c>
-      <c r="B3">
-        <v>159</v>
-      </c>
       <c r="C3">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D3">
+        <v>158</v>
+      </c>
+      <c r="E3">
         <v>143</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>137</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f>_xlfn.QUARTILE.INC(A:A,1)</f>
         <v>159</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:L3" si="1">_xlfn.QUARTILE.INC(B:B,1)</f>
+      <c r="J3">
+        <f t="shared" ref="J3:M3" si="1">_xlfn.QUARTILE.INC(C:C,1)</f>
         <v>157</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <f t="shared" si="1"/>
         <v>115.75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>159</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>157</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>149</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>155</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>149</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f>_xlfn.QUARTILE.INC(A:A,2)</f>
         <v>161</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:L4" si="2">_xlfn.QUARTILE.INC(B:B,2)</f>
+      <c r="J4">
+        <f t="shared" ref="J4:M4" si="2">_xlfn.QUARTILE.INC(C:C,2)</f>
         <v>158.5</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="2"/>
         <v>136.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>160</v>
       </c>
-      <c r="B5">
-        <v>158</v>
-      </c>
       <c r="C5">
         <v>158</v>
       </c>
       <c r="D5">
+        <v>158</v>
+      </c>
+      <c r="E5">
         <v>137</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>151</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f>_xlfn.QUARTILE.INC(A:A,3)</f>
         <v>162</v>
       </c>
-      <c r="I5">
-        <f t="shared" ref="I5:L5" si="3">_xlfn.QUARTILE.INC(B:B,3)</f>
-        <v>159</v>
-      </c>
       <c r="J5">
+        <f t="shared" ref="J5:M5" si="3">_xlfn.QUARTILE.INC(C:C,3)</f>
+        <v>159</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="3"/>
         <v>154.25</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="3"/>
         <v>149.25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>159</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>146</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>152</v>
-      </c>
-      <c r="D6">
-        <v>138</v>
       </c>
       <c r="E6">
         <v>138</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6">
+        <v>138</v>
+      </c>
+      <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f>MAX(A:A)</f>
         <v>163</v>
       </c>
-      <c r="I6">
-        <f t="shared" ref="I6:L6" si="4">MAX(B:B)</f>
+      <c r="J6">
+        <f t="shared" ref="J6:M6" si="4">MAX(C:C)</f>
         <v>161</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>160</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
@@ -7404,1785 +8581,1787 @@
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>161</v>
       </c>
-      <c r="B7">
-        <v>159</v>
-      </c>
       <c r="C7">
+        <v>159</v>
+      </c>
+      <c r="D7">
         <v>157</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>147</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>162</v>
       </c>
-      <c r="B8">
-        <v>158</v>
-      </c>
       <c r="C8">
+        <v>158</v>
+      </c>
+      <c r="D8">
         <v>145</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>148</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>144</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>12</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>162</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>156</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>149</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>150</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>147</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>19</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f>MIN(A:A)</f>
         <v>158</v>
       </c>
-      <c r="I9">
-        <f t="shared" ref="I9" si="5">MIN(B:B)</f>
+      <c r="J9">
+        <f t="shared" ref="J9" si="5">MIN(C:C)</f>
         <v>143</v>
       </c>
-      <c r="J9">
-        <f t="shared" ref="J9" si="6">MIN(C:C)</f>
+      <c r="K9">
+        <f t="shared" ref="K9" si="6">MIN(D:D)</f>
         <v>95</v>
       </c>
-      <c r="K9">
-        <f t="shared" ref="K9" si="7">MIN(D:D)</f>
+      <c r="L9">
+        <f t="shared" ref="L9" si="7">MIN(E:E)</f>
         <v>87</v>
       </c>
-      <c r="L9">
-        <f t="shared" ref="L9" si="8">MIN(E:E)</f>
+      <c r="M9">
+        <f t="shared" ref="M9" si="8">MIN(F:F)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>159</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>157</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>154</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>152</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>149</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>24</v>
       </c>
-      <c r="H10">
-        <f t="shared" ref="H10:L13" si="9">H3-H2</f>
+      <c r="I10">
+        <f t="shared" ref="I10:M13" si="9">I3-I2</f>
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="9"/>
         <v>55</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="9"/>
         <v>70.75</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>161</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>151</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>100</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>156</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>153</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>25</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="9"/>
         <v>20.75</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>162</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>156</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>141</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>140</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>136</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>26</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="9"/>
         <v>5.25</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="9"/>
         <v>12.75</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>162</v>
       </c>
-      <c r="B13">
-        <v>152</v>
-      </c>
       <c r="C13">
         <v>152</v>
       </c>
       <c r="D13">
+        <v>152</v>
+      </c>
+      <c r="E13">
         <v>151</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>131</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>27</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="9"/>
         <v>5.75</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="9"/>
         <v>11.75</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>162</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>150</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>147</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>156</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>163</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>154</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>153</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>147</v>
       </c>
-      <c r="E15">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>159</v>
       </c>
-      <c r="B16">
-        <v>158</v>
-      </c>
       <c r="C16">
+        <v>158</v>
+      </c>
+      <c r="D16">
         <v>146</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>132</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>159</v>
       </c>
-      <c r="B17">
-        <v>158</v>
-      </c>
       <c r="C17">
+        <v>158</v>
+      </c>
+      <c r="D17">
         <v>153</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>109</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>159</v>
-      </c>
-      <c r="B18">
-        <v>156</v>
       </c>
       <c r="C18">
         <v>156</v>
       </c>
       <c r="D18">
+        <v>156</v>
+      </c>
+      <c r="E18">
         <v>128</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>160</v>
       </c>
-      <c r="B19">
-        <v>155</v>
-      </c>
       <c r="C19">
         <v>155</v>
       </c>
       <c r="D19">
+        <v>155</v>
+      </c>
+      <c r="E19">
         <v>143</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>162</v>
       </c>
-      <c r="B20">
-        <v>158</v>
-      </c>
       <c r="C20">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20">
         <v>159</v>
       </c>
       <c r="E20">
+        <v>159</v>
+      </c>
+      <c r="F20">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>161</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>155</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>143</v>
       </c>
-      <c r="D21">
-        <v>158</v>
-      </c>
       <c r="E21">
+        <v>158</v>
+      </c>
+      <c r="F21">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>163</v>
       </c>
-      <c r="B22">
-        <v>158</v>
-      </c>
       <c r="C22">
+        <v>158</v>
+      </c>
+      <c r="D22">
         <v>143</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>145</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>160</v>
       </c>
-      <c r="B23">
-        <v>159</v>
-      </c>
       <c r="C23">
         <v>159</v>
       </c>
       <c r="D23">
+        <v>159</v>
+      </c>
+      <c r="E23">
         <v>145</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>161</v>
       </c>
-      <c r="B24">
-        <v>151</v>
-      </c>
       <c r="C24">
         <v>151</v>
       </c>
       <c r="D24">
+        <v>151</v>
+      </c>
+      <c r="E24">
         <v>96</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>160</v>
       </c>
-      <c r="B25">
-        <v>158</v>
-      </c>
       <c r="C25">
+        <v>158</v>
+      </c>
+      <c r="D25">
         <v>145</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>111</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>162</v>
       </c>
-      <c r="B26">
-        <v>159</v>
-      </c>
       <c r="C26">
+        <v>159</v>
+      </c>
+      <c r="D26">
         <v>112</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>141</v>
       </c>
-      <c r="E26">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F26">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>159</v>
       </c>
-      <c r="B27">
-        <v>158</v>
-      </c>
       <c r="C27">
+        <v>158</v>
+      </c>
+      <c r="D27">
         <v>152</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>149</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>160</v>
       </c>
-      <c r="B28">
-        <v>159</v>
-      </c>
       <c r="C28">
+        <v>159</v>
+      </c>
+      <c r="D28">
         <v>126</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>160</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>160</v>
       </c>
-      <c r="B29">
-        <v>158</v>
-      </c>
       <c r="C29">
+        <v>158</v>
+      </c>
+      <c r="D29">
         <v>140</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>160</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>161</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>160</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>155</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>156</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>159</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>157</v>
       </c>
-      <c r="C31">
-        <v>158</v>
-      </c>
       <c r="D31">
+        <v>158</v>
+      </c>
+      <c r="E31">
         <v>132</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>160</v>
       </c>
-      <c r="B32">
-        <v>159</v>
-      </c>
       <c r="C32">
+        <v>159</v>
+      </c>
+      <c r="D32">
         <v>146</v>
       </c>
-      <c r="D32">
-        <v>158</v>
-      </c>
       <c r="E32">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+      <c r="F32">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>160</v>
       </c>
-      <c r="B33">
-        <v>158</v>
-      </c>
       <c r="C33">
+        <v>158</v>
+      </c>
+      <c r="D33">
         <v>160</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>151</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>159</v>
       </c>
-      <c r="B34">
-        <v>159</v>
-      </c>
       <c r="C34">
         <v>159</v>
       </c>
       <c r="D34">
+        <v>159</v>
+      </c>
+      <c r="E34">
         <v>124</v>
       </c>
-      <c r="E34">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F34">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>160</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>157</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>151</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>152</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>161</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>157</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>155</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>146</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>161</v>
       </c>
-      <c r="B37">
-        <v>158</v>
-      </c>
       <c r="C37">
+        <v>158</v>
+      </c>
+      <c r="D37">
         <v>142</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>152</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>162</v>
       </c>
-      <c r="B38">
-        <v>159</v>
-      </c>
       <c r="C38">
+        <v>159</v>
+      </c>
+      <c r="D38">
         <v>124</v>
       </c>
-      <c r="D38">
-        <v>159</v>
-      </c>
       <c r="E38">
+        <v>159</v>
+      </c>
+      <c r="F38">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>162</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>157</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>154</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>136</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>162</v>
       </c>
-      <c r="B40">
-        <v>159</v>
-      </c>
       <c r="C40">
+        <v>159</v>
+      </c>
+      <c r="D40">
         <v>150</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>147</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>159</v>
       </c>
-      <c r="B41">
-        <v>158</v>
-      </c>
       <c r="C41">
+        <v>158</v>
+      </c>
+      <c r="D41">
         <v>136</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>153</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>161</v>
       </c>
-      <c r="B42">
-        <v>159</v>
-      </c>
       <c r="C42">
+        <v>159</v>
+      </c>
+      <c r="D42">
         <v>137</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>143</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>161</v>
       </c>
-      <c r="B43">
-        <v>158</v>
-      </c>
       <c r="C43">
+        <v>158</v>
+      </c>
+      <c r="D43">
         <v>141</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>149</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>160</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>160</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>156</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>147</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>117</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>14</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>18</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>15</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>16</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>160</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>157</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>155</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>153</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>162</v>
       </c>
-      <c r="B46">
-        <v>159</v>
-      </c>
       <c r="C46">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D46">
+        <v>158</v>
+      </c>
+      <c r="E46">
         <v>150</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>162</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>160</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>142</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>157</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>150</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>28</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>161</v>
       </c>
-      <c r="B48">
-        <v>158</v>
-      </c>
       <c r="C48">
+        <v>158</v>
+      </c>
+      <c r="D48">
         <v>156</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>142</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>153</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>158</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>160</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>134</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>148</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>159</v>
       </c>
-      <c r="B50">
-        <v>159</v>
-      </c>
       <c r="C50">
+        <v>159</v>
+      </c>
+      <c r="D50">
         <v>156</v>
       </c>
-      <c r="D50">
-        <v>158</v>
-      </c>
       <c r="E50">
+        <v>158</v>
+      </c>
+      <c r="F50">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>162</v>
       </c>
-      <c r="B51">
-        <v>158</v>
-      </c>
       <c r="C51">
+        <v>158</v>
+      </c>
+      <c r="D51">
         <v>150</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>149</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>159</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>157</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>139</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>153</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>161</v>
       </c>
-      <c r="B53">
-        <v>158</v>
-      </c>
       <c r="C53">
+        <v>158</v>
+      </c>
+      <c r="D53">
         <v>153</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>142</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>158</v>
       </c>
-      <c r="B54">
-        <v>159</v>
-      </c>
       <c r="C54">
+        <v>159</v>
+      </c>
+      <c r="D54">
         <v>148</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>152</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>161</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>157</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>154</v>
       </c>
-      <c r="D55">
-        <v>158</v>
-      </c>
       <c r="E55">
+        <v>158</v>
+      </c>
+      <c r="F55">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>162</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>153</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>146</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>152</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>162</v>
       </c>
-      <c r="B57">
-        <v>159</v>
-      </c>
       <c r="C57">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D57">
+        <v>158</v>
+      </c>
+      <c r="E57">
         <v>151</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>161</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>160</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>155</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>92</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>159</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>160</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>157</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>149</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>161</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>160</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>157</v>
       </c>
-      <c r="D60">
-        <v>159</v>
-      </c>
       <c r="E60">
+        <v>159</v>
+      </c>
+      <c r="F60">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>160</v>
       </c>
-      <c r="B61">
-        <v>153</v>
-      </c>
       <c r="C61">
         <v>153</v>
       </c>
       <c r="D61">
+        <v>153</v>
+      </c>
+      <c r="E61">
         <v>157</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>161</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>143</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>141</v>
       </c>
-      <c r="D62">
-        <v>159</v>
-      </c>
       <c r="E62">
+        <v>159</v>
+      </c>
+      <c r="F62">
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>159</v>
       </c>
-      <c r="B63">
-        <v>159</v>
-      </c>
       <c r="C63">
+        <v>159</v>
+      </c>
+      <c r="D63">
         <v>156</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>149</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>161</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>155</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>156</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>149</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>163</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>160</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>152</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>141</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>159</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>160</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>132</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>155</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>159</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>160</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>146</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>147</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>160</v>
       </c>
-      <c r="B68">
-        <v>158</v>
-      </c>
       <c r="C68">
+        <v>158</v>
+      </c>
+      <c r="D68">
         <v>133</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>154</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>162</v>
       </c>
-      <c r="B69">
-        <v>159</v>
-      </c>
       <c r="C69">
+        <v>159</v>
+      </c>
+      <c r="D69">
         <v>105</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>141</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>159</v>
       </c>
-      <c r="B70">
-        <v>159</v>
-      </c>
       <c r="C70">
+        <v>159</v>
+      </c>
+      <c r="D70">
         <v>112</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>145</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>159</v>
       </c>
-      <c r="B71">
-        <v>159</v>
-      </c>
       <c r="C71">
+        <v>159</v>
+      </c>
+      <c r="D71">
         <v>149</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>139</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>161</v>
       </c>
-      <c r="B72">
-        <v>158</v>
-      </c>
       <c r="C72">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D72">
         <v>149</v>
       </c>
       <c r="E72">
+        <v>149</v>
+      </c>
+      <c r="F72">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>160</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>160</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>146</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>152</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>160</v>
       </c>
-      <c r="B74">
-        <v>159</v>
-      </c>
       <c r="C74">
+        <v>159</v>
+      </c>
+      <c r="D74">
         <v>149</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>157</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>161</v>
       </c>
-      <c r="B75">
-        <v>159</v>
-      </c>
       <c r="C75">
+        <v>159</v>
+      </c>
+      <c r="D75">
         <v>110</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>154</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>159</v>
       </c>
-      <c r="B76">
-        <v>158</v>
-      </c>
       <c r="C76">
+        <v>158</v>
+      </c>
+      <c r="D76">
         <v>152</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>141</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>160</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>160</v>
       </c>
-      <c r="C77">
-        <v>159</v>
-      </c>
       <c r="D77">
+        <v>159</v>
+      </c>
+      <c r="E77">
         <v>147</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>158</v>
       </c>
-      <c r="B78">
-        <v>158</v>
-      </c>
       <c r="C78">
         <v>158</v>
       </c>
       <c r="D78">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E78">
         <v>157</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F78">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>162</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>161</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>154</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>144</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>158</v>
       </c>
-      <c r="B80">
-        <v>159</v>
-      </c>
       <c r="C80">
+        <v>159</v>
+      </c>
+      <c r="D80">
         <v>128</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>114</v>
       </c>
-      <c r="E80">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F80">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>161</v>
       </c>
-      <c r="B81">
-        <v>158</v>
-      </c>
       <c r="C81">
+        <v>158</v>
+      </c>
+      <c r="D81">
         <v>156</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>143</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>162</v>
       </c>
-      <c r="B82">
-        <v>159</v>
-      </c>
       <c r="C82">
+        <v>159</v>
+      </c>
+      <c r="D82">
         <v>143</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>145</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>159</v>
       </c>
-      <c r="B83">
-        <v>159</v>
-      </c>
       <c r="C83">
+        <v>159</v>
+      </c>
+      <c r="D83">
         <v>151</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>154</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>162</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>160</v>
       </c>
-      <c r="C84">
-        <v>158</v>
-      </c>
       <c r="D84">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="E84">
         <v>122</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F84">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>161</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>161</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>154</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>106</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>161</v>
       </c>
-      <c r="B86">
-        <v>159</v>
-      </c>
       <c r="C86">
+        <v>159</v>
+      </c>
+      <c r="D86">
         <v>139</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>142</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>161</v>
       </c>
-      <c r="B87">
-        <v>159</v>
-      </c>
       <c r="C87">
+        <v>159</v>
+      </c>
+      <c r="D87">
         <v>146</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>156</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>162</v>
       </c>
-      <c r="B88">
-        <v>158</v>
-      </c>
       <c r="C88">
+        <v>158</v>
+      </c>
+      <c r="D88">
         <v>157</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>142</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>162</v>
       </c>
-      <c r="B89">
-        <v>157</v>
-      </c>
       <c r="C89">
         <v>157</v>
       </c>
       <c r="D89">
+        <v>157</v>
+      </c>
+      <c r="E89">
         <v>142</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>161</v>
       </c>
-      <c r="B90">
-        <v>159</v>
-      </c>
       <c r="C90">
+        <v>159</v>
+      </c>
+      <c r="D90">
         <v>153</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>156</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>133</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>160</v>
       </c>
-      <c r="B91">
-        <v>159</v>
-      </c>
       <c r="C91">
+        <v>159</v>
+      </c>
+      <c r="D91">
         <v>110</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>132</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>161</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>160</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>133</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>157</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>160</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>160</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>102</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>137</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>162</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>161</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>95</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>146</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>136</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>161</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>160</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>127</v>
       </c>
-      <c r="D95">
-        <v>158</v>
-      </c>
       <c r="E95">
+        <v>158</v>
+      </c>
+      <c r="F95">
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>162</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>160</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>147</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>141</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>160</v>
       </c>
-      <c r="B97">
-        <v>159</v>
-      </c>
       <c r="C97">
+        <v>159</v>
+      </c>
+      <c r="D97">
         <v>133</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>157</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>160</v>
       </c>
-      <c r="B98">
-        <v>159</v>
-      </c>
       <c r="C98">
+        <v>159</v>
+      </c>
+      <c r="D98">
         <v>142</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>153</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>160</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>160</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>138</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>145</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>159</v>
       </c>
-      <c r="B100">
-        <v>158</v>
-      </c>
       <c r="C100">
+        <v>158</v>
+      </c>
+      <c r="D100">
         <v>156</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>149</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>160</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>156</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>146</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>87</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
         <v>9</v>
       </c>
@@ -9191,6 +10370,15 @@
       </c>
       <c r="E102" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D104">
+        <f>MEDIAN(D2:D101)</f>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/0100_Research/0120_Prototypes/0122_LiDarLitev4/1_NoiseQuantification/211022_ErrorMesTest.xlsx
+++ b/0100_Research/0120_Prototypes/0122_LiDarLitev4/1_NoiseQuantification/211022_ErrorMesTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e675ddd269f32ab/Documents/3e/PGA/git/LoRaSnow/0100_Research/0120_Prototypes/0122_LiDarLitev4/1_NoiseQuantification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{363007B7-EF68-4699-8DEB-3219973E3261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C318DBC2-4F5B-404B-B64C-3527B140AA10}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="8_{363007B7-EF68-4699-8DEB-3219973E3261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71483A3E-6B4A-4CA1-8413-25C239CD0DE4}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{AC3C01DE-17D2-4DEE-8A88-187E4465A51B}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="15390" windowHeight="9443" activeTab="1" xr2:uid="{AC3C01DE-17D2-4DEE-8A88-187E4465A51B}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-10-22_150600_Noise" sheetId="2" r:id="rId1"/>
@@ -21,16 +21,14 @@
     <definedName name="_xlchart.v1.1" hidden="1">'2021-10-22_150600_Noise'!$A$2:$A$101</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'2021-10-29_153731_Noise'!$F$1</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'2021-10-29_153731_Noise'!$F$2:$F$101</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'2021-10-29_153731_Noise'!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'2021-10-29_153731_Noise'!$C$2:$C$101</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'2021-10-29_153731_Noise'!$A$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'2021-10-29_153731_Noise'!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'2021-10-29_153731_Noise'!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'2021-10-29_153731_Noise'!$C$2:$C$101</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'2021-10-29_153731_Noise'!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'2021-10-29_153731_Noise'!$D$2:$D$101</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'2021-10-29_153731_Noise'!$E$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'2021-10-29_153731_Noise'!$E$2:$E$101</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'2021-10-29_153731_Noise'!$D$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'2021-10-29_153731_Noise'!$D$2:$D$101</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'2021-10-29_153731_Noise'!$E$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'2021-10-29_153731_Noise'!$E$2:$E$101</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'2021-10-29_153731_Noise'!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'2021-10-29_153731_Noise'!$C$2:$C$101</definedName>
     <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'2021-10-22_150600_Noise'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -66,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Mean distance</t>
   </si>
@@ -159,6 +157,9 @@
   </si>
   <si>
     <t>samples du set de mesures. Ainsi, la valeur moyenne de la bin sera la vraie valeur mesurée.</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1741,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1778,7 +1779,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000001-F30B-4D06-A00E-B086A97C0166}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Noise 1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1865,7 +1866,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1903,7 +1904,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000001-F30B-4D06-A00E-B086A97C0166}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Noise 2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1990,7 +1991,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2028,7 +2029,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000001-F30B-4D06-A00E-B086A97C0166}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Noise 3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6756,7 +6757,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11630025" y="180975"/>
+              <a:off x="12392025" y="180975"/>
               <a:ext cx="5807870" cy="3740944"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6834,7 +6835,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17726025" y="180975"/>
+              <a:off x="18488025" y="180975"/>
               <a:ext cx="5807870" cy="3740944"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6912,7 +6913,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11630025" y="3981450"/>
+              <a:off x="12392025" y="3981450"/>
               <a:ext cx="5807870" cy="3740944"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6990,7 +6991,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17726025" y="3981450"/>
+              <a:off x="18488025" y="3981450"/>
               <a:ext cx="5807870" cy="3740944"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7068,7 +7069,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11630025" y="7781925"/>
+              <a:off x="12392025" y="7781925"/>
               <a:ext cx="5807870" cy="3740944"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8362,8 +8363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA777E8-44C9-4C4E-B381-08EC9D0E766F}">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8604,6 +8605,29 @@
       <c r="F7">
         <v>138</v>
       </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE(A:A)</f>
+        <v>160.52000000000001</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE(C:C)</f>
+        <v>157.77000000000001</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:M7" si="5">AVERAGE(D:D)</f>
+        <v>145.43564356435644</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>145.06</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>127.78</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
@@ -8661,19 +8685,19 @@
         <v>158</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9" si="5">MIN(C:C)</f>
+        <f t="shared" ref="J9" si="6">MIN(C:C)</f>
         <v>143</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9" si="6">MIN(D:D)</f>
+        <f t="shared" ref="K9" si="7">MIN(D:D)</f>
         <v>95</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9" si="7">MIN(E:E)</f>
+        <f t="shared" ref="L9" si="8">MIN(E:E)</f>
         <v>87</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9" si="8">MIN(F:F)</f>
+        <f t="shared" ref="M9" si="9">MIN(F:F)</f>
         <v>45</v>
       </c>
     </row>
@@ -8697,23 +8721,23 @@
         <v>24</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:M13" si="9">I3-I2</f>
+        <f t="shared" ref="I10:M13" si="10">I3-I2</f>
         <v>1</v>
       </c>
       <c r="J10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="K10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="L10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="M10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>70.75</v>
       </c>
     </row>
@@ -8737,23 +8761,23 @@
         <v>25</v>
       </c>
       <c r="I11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="K11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="L11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="M11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.75</v>
       </c>
     </row>
@@ -8777,23 +8801,23 @@
         <v>26</v>
       </c>
       <c r="I12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="K12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="L12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.25</v>
       </c>
       <c r="M12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.75</v>
       </c>
     </row>
@@ -8817,23 +8841,23 @@
         <v>27</v>
       </c>
       <c r="I13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="K13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="L13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.75</v>
       </c>
       <c r="M13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.75</v>
       </c>
     </row>
